--- a/TestData/BappTestData.xlsx
+++ b/TestData/BappTestData.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-34600" yWindow="120" windowWidth="25520" windowHeight="15600" activeTab="1"/>
+    <workbookView xWindow="-34600" yWindow="120" windowWidth="25520" windowHeight="15600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="注册" sheetId="1" r:id="rId1"/>
     <sheet name="register" sheetId="2" r:id="rId2"/>
+    <sheet name="login" sheetId="3" r:id="rId3"/>
+    <sheet name="logout" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="302">
   <si>
     <t>注册模块数据集</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1036,12 +1038,121 @@
     <t>请输入昵称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>NO.</t>
+  </si>
+  <si>
+    <t>Pre-condition</t>
+  </si>
+  <si>
+    <t>phoneText</t>
+  </si>
+  <si>
+    <t>passwordText</t>
+  </si>
+  <si>
+    <t>switchpassword</t>
+  </si>
+  <si>
+    <t>servicephoneText</t>
+  </si>
+  <si>
+    <t>loginButton</t>
+  </si>
+  <si>
+    <t>loginSucceed</t>
+  </si>
+  <si>
+    <t>Way</t>
+  </si>
+  <si>
+    <t>ExpectResult</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>15210262168</t>
+  </si>
+  <si>
+    <t>qaz123</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>15501253283</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>18001284533</t>
+  </si>
+  <si>
+    <t>01085730099</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>请输入正确格式手机号</t>
+  </si>
+  <si>
+    <t>1795113122222220</t>
+  </si>
+  <si>
+    <t>21122222222</t>
+  </si>
+  <si>
+    <t>手机号未注册</t>
+  </si>
+  <si>
+    <t>14500000001</t>
+  </si>
+  <si>
+    <t>用户未注册或已失效。</t>
+  </si>
+  <si>
+    <t>手机号或密码错误，您还有4次重试机会。</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>您的帐号已被锁定，如密码丢失，请通过忘记密码功能，修改密码次日0点后再尝试登录。如有疑问，请拨打400-654321-8</t>
+  </si>
+  <si>
+    <t>账号锁定</t>
+  </si>
+  <si>
+    <t>qqqq2!</t>
+  </si>
+  <si>
+    <t>请输入手机号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1141,6 +1252,17 @@
       <color theme="1"/>
       <name val="仿宋"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (主题正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="仿宋"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1165,7 +1287,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="75">
+  <cellStyleXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -1243,8 +1365,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1297,6 +1424,19 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1307,7 +1447,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="75">
+  <cellStyles count="80">
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
@@ -1382,6 +1522,11 @@
     <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1698,12 +1843,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" ht="21" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1720,10 +1865,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="25" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1732,8 +1877,8 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" ht="88.5" customHeight="1">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="2" t="s">
         <v>103</v>
       </c>
@@ -1742,8 +1887,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="25" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1754,8 +1899,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="2" t="s">
         <v>68</v>
       </c>
@@ -1764,8 +1909,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1774,16 +1919,16 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1792,10 +1937,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1806,32 +1951,32 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19" t="s">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1842,9 +1987,9 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25" t="s">
         <v>95</v>
       </c>
       <c r="D15" s="4">
@@ -1852,18 +1997,18 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="2">
         <v>1234567</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1874,8 +2019,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="5" t="s">
         <v>96</v>
       </c>
@@ -1884,8 +2029,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="5" t="s">
         <v>97</v>
       </c>
@@ -1894,8 +2039,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="5" t="s">
         <v>98</v>
       </c>
@@ -1904,8 +2049,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="5" t="s">
         <v>99</v>
       </c>
@@ -1914,8 +2059,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="5" t="s">
         <v>92</v>
       </c>
@@ -1924,8 +2069,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="5" t="s">
         <v>91</v>
       </c>
@@ -1934,8 +2079,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="5" t="s">
         <v>90</v>
       </c>
@@ -1944,8 +2089,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="5" t="s">
         <v>89</v>
       </c>
@@ -1954,8 +2099,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19" t="s">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -1966,8 +2111,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="5" t="s">
         <v>87</v>
       </c>
@@ -1976,8 +2121,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="5" t="s">
         <v>33</v>
       </c>
@@ -1986,8 +2131,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="5" t="s">
         <v>34</v>
       </c>
@@ -1996,8 +2141,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="5" t="s">
         <v>36</v>
       </c>
@@ -2006,8 +2151,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="5" t="s">
         <v>86</v>
       </c>
@@ -2016,10 +2161,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="24" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -2030,8 +2175,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="5" t="s">
         <v>42</v>
       </c>
@@ -2040,8 +2185,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="5" t="s">
         <v>44</v>
       </c>
@@ -2050,8 +2195,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="5" t="s">
         <v>46</v>
       </c>
@@ -2060,8 +2205,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="5" t="s">
         <v>47</v>
       </c>
@@ -2070,8 +2215,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="5" t="s">
         <v>49</v>
       </c>
@@ -2080,8 +2225,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
       <c r="C38" s="5" t="s">
         <v>75</v>
       </c>
@@ -2090,8 +2235,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="5" t="s">
         <v>76</v>
       </c>
@@ -2100,8 +2245,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
       <c r="C40" s="5" t="s">
         <v>77</v>
       </c>
@@ -2110,8 +2255,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19" t="s">
+      <c r="A41" s="24"/>
+      <c r="B41" s="24" t="s">
         <v>31</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -2120,8 +2265,8 @@
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
       <c r="C42" s="5" t="s">
         <v>78</v>
       </c>
@@ -2130,10 +2275,10 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="24" t="s">
         <v>40</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -2142,72 +2287,72 @@
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1">
-      <c r="A44" s="19"/>
-      <c r="B44" s="19"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
       <c r="C44" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1">
-      <c r="A45" s="19"/>
-      <c r="B45" s="19"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
       <c r="C45" s="5" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="4"/>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="24"/>
       <c r="C46" s="5" t="s">
         <v>80</v>
       </c>
       <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1">
-      <c r="A47" s="19"/>
-      <c r="B47" s="19"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="24"/>
       <c r="C47" s="5" t="s">
         <v>81</v>
       </c>
       <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="24"/>
       <c r="C48" s="5" t="s">
         <v>82</v>
       </c>
       <c r="D48" s="4"/>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1">
-      <c r="A49" s="19"/>
-      <c r="B49" s="19"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="24"/>
       <c r="C49" s="5" t="s">
         <v>83</v>
       </c>
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1">
-      <c r="A50" s="19"/>
-      <c r="B50" s="19"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
       <c r="C50" s="5" t="s">
         <v>84</v>
       </c>
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1">
-      <c r="A51" s="19"/>
-      <c r="B51" s="19"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="24"/>
       <c r="C51" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1">
-      <c r="A52" s="19"/>
-      <c r="B52" s="19" t="s">
+      <c r="A52" s="24"/>
+      <c r="B52" s="24" t="s">
         <v>31</v>
       </c>
       <c r="C52" s="5" t="s">
@@ -2218,63 +2363,63 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1">
-      <c r="A53" s="19"/>
-      <c r="B53" s="19"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="24"/>
       <c r="C53" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D53" s="4"/>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="24"/>
       <c r="C54" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1">
-      <c r="A55" s="19"/>
-      <c r="B55" s="19"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="24"/>
       <c r="C55" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D55" s="4"/>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1">
-      <c r="A56" s="19"/>
-      <c r="B56" s="19"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="24"/>
       <c r="C56" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1">
-      <c r="A57" s="19"/>
-      <c r="B57" s="19"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="24"/>
       <c r="C57" s="5" t="s">
         <v>60</v>
       </c>
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1">
-      <c r="A58" s="19"/>
-      <c r="B58" s="19"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="24"/>
       <c r="C58" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D58" s="4"/>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1">
-      <c r="A59" s="19"/>
-      <c r="B59" s="19"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="24"/>
       <c r="C59" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="24" t="s">
         <v>61</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -2284,7 +2429,7 @@
       <c r="D60" s="4"/>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1">
-      <c r="A61" s="19"/>
+      <c r="A61" s="24"/>
       <c r="B61" s="3" t="s">
         <v>63</v>
       </c>
@@ -2292,7 +2437,7 @@
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1">
-      <c r="A62" s="19" t="s">
+      <c r="A62" s="24" t="s">
         <v>64</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -2304,7 +2449,7 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1">
-      <c r="A63" s="19"/>
+      <c r="A63" s="24"/>
       <c r="B63" s="3" t="s">
         <v>67</v>
       </c>
@@ -2365,7 +2510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O29" sqref="O29"/>
     </sheetView>
@@ -4110,4 +4255,770 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="28.5" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="10" max="10" width="66.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15">
+      <c r="A1" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I5" s="21">
+        <v>2</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="K5" s="21"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I6" s="21">
+        <v>2</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="K6" s="21"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I7" s="21">
+        <v>2</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="K7" s="21"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I8" s="21">
+        <v>2</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="K8" s="21"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I9" s="21">
+        <v>2</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="K9" s="21"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I10" s="21">
+        <v>2</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="K10" s="21"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I11" s="21">
+        <v>2</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="K11" s="21"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I12" s="21">
+        <v>2</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="K12" s="21"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I13" s="21">
+        <v>2</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="K13" s="21"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I14" s="21">
+        <v>2</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="K14" s="21"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I15" s="21">
+        <v>2</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I16" s="21">
+        <v>2</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="K16" s="21"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I17" s="21">
+        <v>2</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="K17" s="21"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I18" s="21">
+        <v>2</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="K18" s="21"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I19" s="21">
+        <v>2</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="K19" s="21"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I20" s="21">
+        <v>2</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="K20" s="21"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I21" s="21">
+        <v>2</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I22" s="21">
+        <v>2</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="I23" s="21">
+        <v>2</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/TestData/BappTestData.xlsx
+++ b/TestData/BappTestData.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-34600" yWindow="120" windowWidth="25520" windowHeight="15600" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="注册" sheetId="1" r:id="rId1"/>
     <sheet name="register" sheetId="2" r:id="rId2"/>
     <sheet name="login" sheetId="3" r:id="rId3"/>
     <sheet name="logout" sheetId="4" r:id="rId4"/>
+    <sheet name="forgetpassword" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="334">
   <si>
     <t>注册模块数据集</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1145,6 +1146,125 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findButton</t>
+  </si>
+  <si>
+    <t>findSucceed</t>
+  </si>
+  <si>
+    <t>验证码不正确。</t>
+  </si>
+  <si>
+    <t>6位错误的验证码</t>
+  </si>
+  <si>
+    <t>6位过期的验证码</t>
+  </si>
+  <si>
+    <t>11013141212</t>
+  </si>
+  <si>
+    <t>未注册的手机号</t>
+  </si>
+  <si>
+    <t>17500000001</t>
+  </si>
+  <si>
+    <t>超过60s重新触发发送验证码</t>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qaz123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>该手机号未注册，请使用其它手机号。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码不可为连续的数字或者字母</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入验证码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号错误。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码必须为6~12位字母、数字或符号的组合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码中不可连续出现2个以上的相同字符</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码至少包含字母、数字或符号中的两种</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1287,11 +1407,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="80">
+  <cellStyleXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1447,7 +1577,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="80">
+  <cellStyles count="90">
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
@@ -1527,6 +1657,16 @@
     <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2511,8 +2651,8 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O29" sqref="O29"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4261,8 +4401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5021,4 +5161,783 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="38.6640625" customWidth="1"/>
+    <col min="11" max="11" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I3" s="22">
+        <v>2</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I4" s="22">
+        <v>2</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="I5" s="22">
+        <v>1</v>
+      </c>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="K7" s="18"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D12" s="18">
+        <v>22334</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="K12" s="18"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D13" s="18">
+        <v>2345</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="K13" s="18"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D14" s="18">
+        <v>1234567</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="K14" s="18"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="K16" s="18"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="K18" s="18"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="K20" s="18"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" s="18">
+        <v>15210262168</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="J23" s="18"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>